--- a/11 - 10000 to 15000.xlsx
+++ b/11 - 10000 to 15000.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A311E0A9-5C91-432B-BF30-D19687B2C5D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D531201F-95EB-4487-964B-94625B437631}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Companies</t>
   </si>
@@ -206,6 +212,9 @@
   </si>
   <si>
     <t>PVC/CPVC Pipes</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
   </si>
 </sst>
 </file>
@@ -587,20 +596,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F31"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="138" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="133.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,391 +625,451 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11">
-        <v>115.96</v>
+        <v>1077.78</v>
       </c>
       <c r="C2" s="8">
-        <v>165.53</v>
+        <v>1622.11</v>
       </c>
       <c r="D2" s="8">
-        <v>909.69</v>
+        <v>15076.56</v>
       </c>
       <c r="E2" s="8">
-        <v>10059.9</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12024.6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>7.41</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1393.78</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1364.29</v>
+      </c>
+      <c r="D3" s="8">
+        <v>13179.24</v>
+      </c>
+      <c r="E3" s="8">
+        <v>10217.469999999999</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.49</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="11">
+        <v>516.59</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1081.3800000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>79293.86</v>
+      </c>
+      <c r="E4" s="11">
+        <v>11799</v>
+      </c>
+      <c r="F4" s="11">
+        <v>10.91</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11">
+        <v>569.21</v>
+      </c>
+      <c r="C5" s="8">
+        <v>754</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3306.5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>11354.62</v>
+      </c>
+      <c r="F5" s="8">
+        <v>15.06</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="11">
+        <v>618.02</v>
+      </c>
+      <c r="C6" s="9">
+        <v>889.24</v>
+      </c>
+      <c r="D6" s="8">
+        <v>17270.23</v>
+      </c>
+      <c r="E6" s="8">
+        <v>13474.09</v>
+      </c>
+      <c r="F6" s="8">
+        <v>15.15</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5">
+        <v>492.66</v>
+      </c>
+      <c r="C7" s="8">
+        <v>713.91</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6390.87</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10972.32</v>
+      </c>
+      <c r="F7" s="8">
+        <v>15.37</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="11">
+        <v>487.81</v>
+      </c>
+      <c r="C8" s="9">
+        <v>794.67</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7029.58</v>
+      </c>
+      <c r="E8" s="8">
+        <v>12299.13</v>
+      </c>
+      <c r="F8" s="8">
+        <v>15.48</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>612.25</v>
+      </c>
+      <c r="C9" s="8">
+        <v>708.3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1165.6600000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>11523.28</v>
+      </c>
+      <c r="F9" s="8">
+        <v>16.27</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B10" s="11">
         <v>447.81</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C10" s="8">
         <v>611.21</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D10" s="8">
         <v>3571.69</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E10" s="8">
         <v>10096.91</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F10" s="8">
+        <v>16.52</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="11">
-        <v>124.23</v>
-      </c>
-      <c r="C4" s="8">
-        <v>175.44</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1191.99</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10143.64</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1393.78</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1364.29</v>
-      </c>
-      <c r="D5" s="8">
-        <v>13179.24</v>
-      </c>
-      <c r="E5" s="8">
-        <v>10217.469999999999</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11">
-        <v>126.88</v>
-      </c>
-      <c r="C6" s="8">
-        <v>191.47</v>
-      </c>
-      <c r="D6" s="8">
-        <v>967.16</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10475.129999999999</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5">
+        <v>433.93</v>
+      </c>
+      <c r="C11" s="8">
+        <v>682.85</v>
+      </c>
+      <c r="D11" s="8">
+        <v>39937.26</v>
+      </c>
+      <c r="E11" s="8">
+        <v>14227.28</v>
+      </c>
+      <c r="F11" s="8">
+        <v>20.84</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11">
+        <v>374.27</v>
+      </c>
+      <c r="C12" s="9">
+        <v>452.96</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1737.08</v>
+      </c>
+      <c r="E12" s="8">
+        <v>11177.22</v>
+      </c>
+      <c r="F12" s="8">
+        <v>24.68</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B13" s="11">
         <v>281.5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C13" s="8">
         <v>428.64</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D13" s="8">
         <v>2649.56</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E13" s="8">
         <v>10858.12</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F13" s="8">
+        <v>25.33</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5">
-        <v>492.66</v>
-      </c>
-      <c r="C8" s="8">
-        <v>713.91</v>
-      </c>
-      <c r="D8" s="8">
-        <v>6390.87</v>
-      </c>
-      <c r="E8" s="8">
-        <v>10972.32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11">
-        <v>87.07</v>
-      </c>
-      <c r="C9" s="8">
-        <v>114.85</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1541.3</v>
-      </c>
-      <c r="E9" s="8">
-        <v>11159.07</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="11">
-        <v>374.27</v>
-      </c>
-      <c r="C10" s="9">
-        <v>452.96</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1737.08</v>
-      </c>
-      <c r="E10" s="8">
-        <v>11177.22</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="11">
-        <v>569.21</v>
-      </c>
-      <c r="C11" s="8">
-        <v>754</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3306.5</v>
-      </c>
-      <c r="E11" s="8">
-        <v>11354.62</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5">
-        <v>612.25</v>
-      </c>
-      <c r="C12" s="8">
-        <v>708.3</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1165.6600000000001</v>
-      </c>
-      <c r="E12" s="8">
-        <v>11523.28</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="11">
-        <v>316.01</v>
-      </c>
-      <c r="C13" s="9">
-        <v>289.2</v>
-      </c>
-      <c r="D13" s="8">
-        <v>8998.9</v>
-      </c>
-      <c r="E13" s="8">
-        <v>11574.38</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11">
-        <v>185.56</v>
-      </c>
-      <c r="C14" s="8">
-        <v>282.17</v>
+        <v>249.48</v>
+      </c>
+      <c r="C14" s="9">
+        <v>454.91</v>
       </c>
       <c r="D14" s="8">
-        <v>1779.97</v>
-      </c>
-      <c r="E14" s="11">
-        <v>11644.47</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3466.46</v>
+      </c>
+      <c r="E14" s="8">
+        <v>11814.55</v>
+      </c>
+      <c r="F14" s="8">
+        <v>25.97</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B15" s="11">
-        <v>516.59</v>
+        <v>245.83</v>
       </c>
       <c r="C15" s="8">
-        <v>1081.3800000000001</v>
+        <v>419.8</v>
       </c>
       <c r="D15" s="8">
-        <v>79293.86</v>
-      </c>
-      <c r="E15" s="11">
-        <v>11799</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2763.87</v>
+      </c>
+      <c r="E15" s="8">
+        <v>12577.29</v>
+      </c>
+      <c r="F15" s="8">
+        <v>29.96</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B16" s="11">
-        <v>249.48</v>
-      </c>
-      <c r="C16" s="9">
-        <v>454.91</v>
+        <v>343.34</v>
+      </c>
+      <c r="C16" s="8">
+        <v>461.03</v>
       </c>
       <c r="D16" s="8">
-        <v>3466.46</v>
+        <v>2154.71</v>
       </c>
       <c r="E16" s="8">
-        <v>11814.55</v>
-      </c>
-      <c r="F16" s="10" t="s">
+        <v>13981.21</v>
+      </c>
+      <c r="F16" s="8">
+        <v>30.33</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="8">
+        <v>280.23</v>
+      </c>
+      <c r="C17" s="8">
+        <v>469.3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>4785.18</v>
+      </c>
+      <c r="E17" s="8">
+        <v>14273.29</v>
+      </c>
+      <c r="F17" s="8">
+        <v>30.41</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="11">
+        <v>258.5</v>
+      </c>
+      <c r="C18" s="9">
+        <v>429.05</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3013.84</v>
+      </c>
+      <c r="E18" s="8">
+        <v>14593.53</v>
+      </c>
+      <c r="F18" s="8">
+        <v>34.01</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1077.78</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1622.11</v>
-      </c>
-      <c r="D17" s="8">
-        <v>15076.56</v>
-      </c>
-      <c r="E17" s="8">
-        <v>12024.6</v>
-      </c>
-      <c r="F17" s="10" t="s">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="11">
+        <v>222.56</v>
+      </c>
+      <c r="C19" s="8">
+        <v>402.52</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1447.74</v>
+      </c>
+      <c r="E19" s="8">
+        <v>14126.5</v>
+      </c>
+      <c r="F19" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="11">
+        <v>308.98</v>
+      </c>
+      <c r="C20" s="8">
+        <v>380.6</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2219.1999999999998</v>
+      </c>
+      <c r="E20" s="8">
+        <v>14238.22</v>
+      </c>
+      <c r="F20" s="8">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="11">
-        <v>255.5</v>
-      </c>
-      <c r="C18" s="8">
-        <v>275.24</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2775.85</v>
-      </c>
-      <c r="E18" s="8">
-        <v>12061</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="11">
-        <v>487.81</v>
-      </c>
-      <c r="C19" s="9">
-        <v>794.67</v>
-      </c>
-      <c r="D19" s="8">
-        <v>7029.58</v>
-      </c>
-      <c r="E19" s="8">
-        <v>12299.13</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="11">
-        <v>245.83</v>
-      </c>
-      <c r="C20" s="8">
-        <v>419.8</v>
-      </c>
-      <c r="D20" s="8">
-        <v>2763.87</v>
-      </c>
-      <c r="E20" s="8">
-        <v>12577.29</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>42</v>
       </c>
@@ -1016,837 +1085,948 @@
       <c r="E21" s="8">
         <v>12596</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B22" s="11">
-        <v>618.02</v>
+        <v>316.01</v>
       </c>
       <c r="C22" s="9">
-        <v>889.24</v>
+        <v>289.2</v>
       </c>
       <c r="D22" s="8">
-        <v>17270.23</v>
+        <v>8998.9</v>
       </c>
       <c r="E22" s="8">
-        <v>13474.09</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>11574.38</v>
+      </c>
+      <c r="F22" s="8">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="11">
+        <v>185.56</v>
+      </c>
+      <c r="C23" s="8">
+        <v>282.17</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1779.97</v>
+      </c>
+      <c r="E23" s="11">
+        <v>11644.47</v>
+      </c>
+      <c r="F23" s="11">
+        <v>41.27</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="11">
+        <v>255.5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>275.24</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2775.85</v>
+      </c>
+      <c r="E24" s="8">
+        <v>12061</v>
+      </c>
+      <c r="F24" s="8">
+        <v>43.82</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="11">
+        <v>362.87</v>
+      </c>
+      <c r="C25" s="8">
+        <v>305.25</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2118.7399999999998</v>
+      </c>
+      <c r="E25" s="5">
+        <v>14596.29</v>
+      </c>
+      <c r="F25" s="5">
+        <v>47.82</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="11">
+        <v>126.88</v>
+      </c>
+      <c r="C26" s="8">
+        <v>191.47</v>
+      </c>
+      <c r="D26" s="8">
+        <v>967.16</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10475.129999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>54.71</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="11">
+        <v>124.23</v>
+      </c>
+      <c r="C27" s="8">
+        <v>175.44</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1191.99</v>
+      </c>
+      <c r="E27" s="5">
+        <v>10143.64</v>
+      </c>
+      <c r="F27" s="5">
+        <v>57.82</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="11">
+        <v>115.96</v>
+      </c>
+      <c r="C28" s="8">
+        <v>165.53</v>
+      </c>
+      <c r="D28" s="8">
+        <v>909.69</v>
+      </c>
+      <c r="E28" s="8">
+        <v>10059.9</v>
+      </c>
+      <c r="F28" s="8">
+        <v>60.77</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="11">
+        <v>87.07</v>
+      </c>
+      <c r="C29" s="8">
+        <v>114.85</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1541.3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>11159.07</v>
+      </c>
+      <c r="F29" s="8">
+        <v>97.16</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97.6</v>
+      </c>
+      <c r="C30" s="8">
+        <v>141.44999999999999</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1300.25</v>
+      </c>
+      <c r="E30" s="8">
+        <v>14626.29</v>
+      </c>
+      <c r="F30" s="8">
+        <v>103.4</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B31" s="5">
         <v>119.15</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C31" s="8">
         <v>102.87</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D31" s="8">
         <v>3717.66</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E31" s="8">
         <v>13639.77</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F31" s="8">
+        <v>132.59</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="11">
-        <v>343.34</v>
-      </c>
-      <c r="C24" s="8">
-        <v>461.03</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2154.71</v>
-      </c>
-      <c r="E24" s="8">
-        <v>13981.21</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="11">
-        <v>222.56</v>
-      </c>
-      <c r="C25" s="8">
-        <v>402.52</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1447.74</v>
-      </c>
-      <c r="E25" s="8">
-        <v>14126.5</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="5">
-        <v>433.93</v>
-      </c>
-      <c r="C26" s="8">
-        <v>682.85</v>
-      </c>
-      <c r="D26" s="8">
-        <v>39937.26</v>
-      </c>
-      <c r="E26" s="8">
-        <v>14227.28</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="11">
-        <v>308.98</v>
-      </c>
-      <c r="C27" s="8">
-        <v>380.6</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2219.1999999999998</v>
-      </c>
-      <c r="E27" s="8">
-        <v>14238.22</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="8">
-        <v>280.23</v>
-      </c>
-      <c r="C28" s="8">
-        <v>469.3</v>
-      </c>
-      <c r="D28" s="8">
-        <v>4785.18</v>
-      </c>
-      <c r="E28" s="8">
-        <v>14273.29</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="11">
-        <v>258.5</v>
-      </c>
-      <c r="C29" s="9">
-        <v>429.05</v>
-      </c>
-      <c r="D29" s="8">
-        <v>3013.84</v>
-      </c>
-      <c r="E29" s="8">
-        <v>14593.53</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="11">
-        <v>362.87</v>
-      </c>
-      <c r="C30" s="8">
-        <v>305.25</v>
-      </c>
-      <c r="D30" s="8">
-        <v>2118.7399999999998</v>
-      </c>
-      <c r="E30" s="5">
-        <v>14596.29</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="11">
-        <v>97.6</v>
-      </c>
-      <c r="C31" s="8">
-        <v>141.44999999999999</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1300.25</v>
-      </c>
-      <c r="E31" s="8">
-        <v>14626.29</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="11"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F32" s="8"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="11"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F33" s="8"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="11"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F34" s="8"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F35" s="8"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="11"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="11"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="11"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F39" s="8"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="11"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F40" s="8"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="11"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F41" s="8"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F42" s="8"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="11"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F43" s="8"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="11"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F44" s="8"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="11"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F45" s="11"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="11"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F46" s="8"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="11"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F47" s="8"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F48" s="8"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="11"/>
       <c r="C49" s="9"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F49" s="8"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F50" s="8"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F51" s="8"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F52" s="5"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="11"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F53" s="5"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="11"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F54" s="8"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="11"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F55" s="11"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="9"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="10"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F56" s="8"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F57" s="8"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="11"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="10"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F58" s="11"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F59" s="8"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="11"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F60" s="5"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="11"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F61" s="8"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="11"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="10"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F62" s="8"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F63" s="8"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="11"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F64" s="8"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="11"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F65" s="8"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="11"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="10"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F66" s="8"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="11"/>
       <c r="C67" s="9"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F67" s="8"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="10"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F68" s="8"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F69" s="8"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="11"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="10"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F70" s="11"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="11"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F71" s="8"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="11"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="10"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F72" s="11"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="11"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F73" s="8"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="11"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F74" s="8"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
-      <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F75" s="8"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="11"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F76" s="8"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F77" s="8"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="11"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="8"/>
-      <c r="F78" s="10"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F78" s="8"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="11"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="10"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F80" s="8"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
       <c r="D81" s="8"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="11"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F82" s="11"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F83" s="8"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="11"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F84" s="8"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="11"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F85" s="8"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="10"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F86" s="8"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="11"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F87" s="9"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="10"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F88" s="8"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="11"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F89" s="9"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="10"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F90" s="8"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="11"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F91" s="9"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="10"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F92" s="9"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F93" s="9"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="11"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
-      <c r="F94" s="10"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F94" s="8"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="11"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="10"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F95" s="9"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F96" s="8"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="11"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F97" s="8"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="11"/>
       <c r="C98" s="9"/>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="14"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F98" s="9"/>
+      <c r="G98" s="14"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F99" s="8"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="11"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="10"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F100" s="9"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="11"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F101" s="8"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="11"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="10"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F102" s="9"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="11"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F103" s="8"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
-      <c r="F104" s="10"/>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F104" s="8"/>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
-      <c r="F105" s="10"/>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F105" s="8"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="11"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="10"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F106" s="9"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="11"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="11"/>
-      <c r="F107" s="10"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F107" s="11"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="11"/>
       <c r="C108" s="9"/>
       <c r="D108" s="8"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="10"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F108" s="9"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="11"/>
       <c r="C109" s="9"/>
       <c r="D109" s="8"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="10"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
-    <sortCondition descending="1" ref="B1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+    <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
